--- a/Code/Results/Cases/Case_6_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_57/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.771565958590088</v>
+        <v>1.680074547450403</v>
       </c>
       <c r="C2">
-        <v>1.029783674735143</v>
+        <v>0.3118441062253794</v>
       </c>
       <c r="D2">
-        <v>0.03507274177825437</v>
+        <v>0.03879097107055252</v>
       </c>
       <c r="E2">
-        <v>1.455364577743765</v>
+        <v>1.373189022446752</v>
       </c>
       <c r="F2">
-        <v>2.436983521825198</v>
+        <v>1.834494974827265</v>
       </c>
       <c r="G2">
-        <v>0.0007625868787197133</v>
+        <v>0.0008017265230321314</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.087752436374274</v>
+        <v>1.895278540645592</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.006176694831382</v>
+        <v>1.599171737119406</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.237567059051685</v>
+        <v>1.451648452499427</v>
       </c>
       <c r="C3">
-        <v>0.881951497473068</v>
+        <v>0.2679087676842755</v>
       </c>
       <c r="D3">
-        <v>0.03417461473463135</v>
+        <v>0.04073673881907602</v>
       </c>
       <c r="E3">
-        <v>1.237693091274792</v>
+        <v>1.174037997315125</v>
       </c>
       <c r="F3">
-        <v>2.147019062200158</v>
+        <v>1.668824016863326</v>
       </c>
       <c r="G3">
-        <v>0.0007730568168566876</v>
+        <v>0.0008095255172285306</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9327972451923614</v>
+        <v>1.634242730206608</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.014801065646068</v>
+        <v>1.587042012018728</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.91722684803409</v>
+        <v>1.313904821740721</v>
       </c>
       <c r="C4">
-        <v>0.7933050716740127</v>
+        <v>0.2414226100910639</v>
       </c>
       <c r="D4">
-        <v>0.03378623985796381</v>
+        <v>0.0419589085433838</v>
       </c>
       <c r="E4">
-        <v>1.108519988636687</v>
+        <v>1.054825354249857</v>
       </c>
       <c r="F4">
-        <v>1.975964431348856</v>
+        <v>1.570720671640672</v>
       </c>
       <c r="G4">
-        <v>0.0007795961420441477</v>
+        <v>0.0008144265333191114</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8398481709299261</v>
+        <v>1.476836497454599</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.022491335899488</v>
+        <v>1.581787468880918</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.788281335373085</v>
+        <v>1.258318038986516</v>
       </c>
       <c r="C5">
-        <v>0.7576244068885671</v>
+        <v>0.2307332800510835</v>
       </c>
       <c r="D5">
-        <v>0.03366385776448411</v>
+        <v>0.04246343518808082</v>
       </c>
       <c r="E5">
-        <v>1.05681310983087</v>
+        <v>1.006893308211232</v>
       </c>
       <c r="F5">
-        <v>1.907783417759148</v>
+        <v>1.53156011948758</v>
       </c>
       <c r="G5">
-        <v>0.0007822925001088067</v>
+        <v>0.0008164537819977183</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8024334338274457</v>
+        <v>1.413311731378769</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.026172713171704</v>
+        <v>1.580157984969603</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.766958308713072</v>
+        <v>1.249118421029607</v>
       </c>
       <c r="C6">
-        <v>0.7517240071865103</v>
+        <v>0.2289640762526517</v>
       </c>
       <c r="D6">
-        <v>0.03364556697777843</v>
+        <v>0.04254759197909408</v>
       </c>
       <c r="E6">
-        <v>1.048278349954217</v>
+        <v>0.9989700166505031</v>
       </c>
       <c r="F6">
-        <v>1.896547873137749</v>
+        <v>1.52510435064427</v>
       </c>
       <c r="G6">
-        <v>0.0007827422322187243</v>
+        <v>0.0008167922688247281</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7962462921247067</v>
+        <v>1.402798095127338</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.026815594910602</v>
+        <v>1.579917227942403</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.915481753305585</v>
+        <v>1.313153061555937</v>
       </c>
       <c r="C7">
-        <v>0.7928221856905395</v>
+        <v>0.2412780531589931</v>
       </c>
       <c r="D7">
-        <v>0.03378445034075028</v>
+        <v>0.04196568702469428</v>
       </c>
       <c r="E7">
-        <v>1.107819114300796</v>
+        <v>1.054176455156409</v>
       </c>
       <c r="F7">
-        <v>1.975039029201952</v>
+        <v>1.570189345857642</v>
       </c>
       <c r="G7">
-        <v>0.0007796323739403056</v>
+        <v>0.0008144537496058511</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8393418189277924</v>
+        <v>1.475977400223911</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.022538834902321</v>
+        <v>1.581763470750403</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.58568675009252</v>
+        <v>1.600737439976456</v>
       </c>
       <c r="C8">
-        <v>0.9783124053710708</v>
+        <v>0.296581211545714</v>
       </c>
       <c r="D8">
-        <v>0.0347259025658424</v>
+        <v>0.03945589471959821</v>
       </c>
       <c r="E8">
-        <v>1.379256555817449</v>
+        <v>1.303806786307362</v>
       </c>
       <c r="F8">
-        <v>2.335405941044243</v>
+        <v>1.77656189278747</v>
       </c>
       <c r="G8">
-        <v>0.0007661762894042301</v>
+        <v>0.0008043934105150218</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.03381146741232</v>
+        <v>1.80461287741042</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.008618280204217</v>
+        <v>1.594509149846033</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.97552776007285</v>
+        <v>2.188993428884601</v>
       </c>
       <c r="C9">
-        <v>1.363689719934086</v>
+        <v>0.409904825251175</v>
       </c>
       <c r="D9">
-        <v>0.03814259869277947</v>
+        <v>0.03477549537836744</v>
       </c>
       <c r="E9">
-        <v>1.957541588794001</v>
+        <v>1.824031900406268</v>
       </c>
       <c r="F9">
-        <v>3.109657513958524</v>
+        <v>2.214662601322786</v>
       </c>
       <c r="G9">
-        <v>0.0007404738090946304</v>
+        <v>0.0007854670471413868</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.437262785548171</v>
+        <v>2.477034350752518</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.003193752059076</v>
+        <v>1.638909485427519</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.069108998749073</v>
+        <v>2.642958859354621</v>
       </c>
       <c r="C10">
-        <v>1.668085685172855</v>
+        <v>0.4977113851389845</v>
       </c>
       <c r="D10">
-        <v>0.04208862457271323</v>
+        <v>0.03152506084379425</v>
       </c>
       <c r="E10">
-        <v>2.428571745426595</v>
+        <v>2.235350838295943</v>
       </c>
       <c r="F10">
-        <v>3.740022700803422</v>
+        <v>2.564334350405744</v>
       </c>
       <c r="G10">
-        <v>0.0007216826230476322</v>
+        <v>0.0007719080463944878</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.755014179840927</v>
+        <v>2.996371671911277</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.017347517900234</v>
+        <v>1.686539507863031</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.589889391723148</v>
+        <v>2.856041752768135</v>
       </c>
       <c r="C11">
-        <v>1.813512353348472</v>
+        <v>0.539065503862787</v>
       </c>
       <c r="D11">
-        <v>0.04433884402747879</v>
+        <v>0.0300996656977226</v>
       </c>
       <c r="E11">
-        <v>2.65831867117349</v>
+        <v>2.431648288519852</v>
       </c>
       <c r="F11">
-        <v>4.045964961280816</v>
+        <v>2.731406374876428</v>
       </c>
       <c r="G11">
-        <v>0.0007130607141122016</v>
+        <v>0.0007657772275921239</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.90645569714178</v>
+        <v>3.240311798200423</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.029103659595791</v>
+        <v>1.712307655701778</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.7912506813542</v>
+        <v>2.937856053891835</v>
       </c>
       <c r="C12">
-        <v>1.869832789543636</v>
+        <v>0.5549699984066478</v>
       </c>
       <c r="D12">
-        <v>0.04527231135919862</v>
+        <v>0.02956893390138404</v>
       </c>
       <c r="E12">
-        <v>2.74814845274787</v>
+        <v>2.507594303207455</v>
       </c>
       <c r="F12">
-        <v>4.165196408892001</v>
+        <v>2.796016469678534</v>
       </c>
       <c r="G12">
-        <v>0.0007097752167396369</v>
+        <v>0.0007634572903732017</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.96503506577433</v>
+        <v>3.334006974787144</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.03446777396114</v>
+        <v>1.722738407411555</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.747684453559714</v>
+        <v>2.920182714467785</v>
       </c>
       <c r="C13">
-        <v>1.857642927156633</v>
+        <v>0.5515330636107194</v>
       </c>
       <c r="D13">
-        <v>0.04506735520718763</v>
+        <v>0.02968280922250877</v>
       </c>
       <c r="E13">
-        <v>2.728664759139008</v>
+        <v>2.491161026784994</v>
       </c>
       <c r="F13">
-        <v>4.139356163337936</v>
+        <v>2.782038388573824</v>
       </c>
       <c r="G13">
-        <v>0.0007104839063481775</v>
+        <v>0.0007639569210124361</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.95235973807047</v>
+        <v>3.313765542210547</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.033269219872636</v>
+        <v>1.720460565439879</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.606367022816698</v>
+        <v>2.862749002502937</v>
       </c>
       <c r="C14">
-        <v>1.818119160894184</v>
+        <v>0.5403688105467666</v>
       </c>
       <c r="D14">
-        <v>0.0444139043103462</v>
+        <v>0.03005581195576568</v>
       </c>
       <c r="E14">
-        <v>2.665648267299758</v>
+        <v>2.437862233335096</v>
       </c>
       <c r="F14">
-        <v>4.055702457297031</v>
+        <v>2.736693750681241</v>
       </c>
       <c r="G14">
-        <v>0.0007127908919919165</v>
+        <v>0.0007655863547833329</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.911248795686234</v>
+        <v>3.247992346896126</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.029525716872911</v>
+        <v>1.713151790816994</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.52037377323677</v>
+        <v>2.827721425611401</v>
       </c>
       <c r="C15">
-        <v>1.79408100175084</v>
+        <v>0.5335635917435582</v>
       </c>
       <c r="D15">
-        <v>0.04402478491781636</v>
+        <v>0.03028550985364653</v>
       </c>
       <c r="E15">
-        <v>2.627438035282907</v>
+        <v>2.405434742815231</v>
       </c>
       <c r="F15">
-        <v>4.004922795680017</v>
+        <v>2.709100038261965</v>
       </c>
       <c r="G15">
-        <v>0.000714200973085575</v>
+        <v>0.0007665845282186334</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.88623563925475</v>
+        <v>3.207883247411701</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.027356481929829</v>
+        <v>1.708765278063879</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.035608289907884</v>
+        <v>2.629180358934832</v>
       </c>
       <c r="C16">
-        <v>1.658741783056144</v>
+        <v>0.4950405974905721</v>
       </c>
       <c r="D16">
-        <v>0.0419519956831067</v>
+        <v>0.03161939586184914</v>
       </c>
       <c r="E16">
-        <v>2.413916780684133</v>
+        <v>2.222730911427121</v>
       </c>
       <c r="F16">
-        <v>3.720464551153583</v>
+        <v>2.553592672998747</v>
       </c>
       <c r="G16">
-        <v>0.0007222438007572449</v>
+        <v>0.0007723091571107616</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.745275197144224</v>
+        <v>2.980601959376827</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.016698114218258</v>
+        <v>1.684944847205458</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.744706417401744</v>
+        <v>2.509184422998828</v>
       </c>
       <c r="C17">
-        <v>1.577657872117527</v>
+        <v>0.4717969146912253</v>
       </c>
       <c r="D17">
-        <v>0.04080709142560579</v>
+        <v>0.03245221344295501</v>
       </c>
       <c r="E17">
-        <v>2.287274805264019</v>
+        <v>2.113192133070228</v>
       </c>
       <c r="F17">
-        <v>3.551271710935652</v>
+        <v>2.460372192307844</v>
       </c>
       <c r="G17">
-        <v>0.0007271525266181467</v>
+        <v>0.0007758281218221344</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.660721271001123</v>
+        <v>2.843284608102806</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.011616676687467</v>
+        <v>1.671437470961706</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.579523927156913</v>
+        <v>2.440772300486117</v>
       </c>
       <c r="C18">
-        <v>1.531657350053763</v>
+        <v>0.4585576648163396</v>
       </c>
       <c r="D18">
-        <v>0.04019026069958187</v>
+        <v>0.03293614062329908</v>
       </c>
       <c r="E18">
-        <v>2.215846149717521</v>
+        <v>2.051032748582429</v>
       </c>
       <c r="F18">
-        <v>3.455718359346633</v>
+        <v>2.407494580082499</v>
       </c>
       <c r="G18">
-        <v>0.0007299696694235136</v>
+        <v>0.000777855893394347</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.612719961867057</v>
+        <v>2.765012611213393</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.009183975467224</v>
+        <v>1.664048729591229</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.523941283330544</v>
+        <v>2.417708238203659</v>
       </c>
       <c r="C19">
-        <v>1.516185005973853</v>
+        <v>0.4540962269112754</v>
       </c>
       <c r="D19">
-        <v>0.03998815070188044</v>
+        <v>0.03310079678691125</v>
       </c>
       <c r="E19">
-        <v>2.191888242853395</v>
+        <v>2.03012363846446</v>
       </c>
       <c r="F19">
-        <v>3.423651535967053</v>
+        <v>2.389712880375725</v>
       </c>
       <c r="G19">
-        <v>0.000730922704344589</v>
+        <v>0.0007785432102776949</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.596569588653779</v>
+        <v>2.738626872136848</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.00844047970763</v>
+        <v>1.661610019890233</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.775447040231825</v>
+        <v>2.521894224365269</v>
       </c>
       <c r="C20">
-        <v>1.586221853441373</v>
+        <v>0.474257518706338</v>
       </c>
       <c r="D20">
-        <v>0.04092455132330031</v>
+        <v>0.03236304117419486</v>
       </c>
       <c r="E20">
-        <v>2.300605986137839</v>
+        <v>2.124763384432796</v>
       </c>
       <c r="F20">
-        <v>3.569096175807488</v>
+        <v>2.47021774635472</v>
       </c>
       <c r="G20">
-        <v>0.0007266306938650106</v>
+        <v>0.0007754531582232839</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.669655212466026</v>
+        <v>2.857827414170089</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.012105924050559</v>
+        <v>1.672835427456789</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.647755358463883</v>
+        <v>2.87958659111996</v>
       </c>
       <c r="C21">
-        <v>1.82969201903677</v>
+        <v>0.5436410172069657</v>
       </c>
       <c r="D21">
-        <v>0.04460348297534011</v>
+        <v>0.02994599421821675</v>
       </c>
       <c r="E21">
-        <v>2.684075314588213</v>
+        <v>2.45347102594647</v>
       </c>
       <c r="F21">
-        <v>4.08017626833913</v>
+        <v>2.749974424182597</v>
       </c>
       <c r="G21">
-        <v>0.0007121139237692962</v>
+        <v>0.0007651077373576706</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.923288454301371</v>
+        <v>3.267273818753949</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.030599167990047</v>
+        <v>1.71527956470274</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.242583136610563</v>
+        <v>3.120017686471385</v>
       </c>
       <c r="C22">
-        <v>1.996265841396166</v>
+        <v>0.5904374207340197</v>
       </c>
       <c r="D22">
-        <v>0.04749279849633581</v>
+        <v>0.02841986453175416</v>
       </c>
       <c r="E22">
-        <v>2.951597692921212</v>
+        <v>2.677876152058175</v>
       </c>
       <c r="F22">
-        <v>4.434283539462996</v>
+        <v>2.94075482425535</v>
       </c>
       <c r="G22">
-        <v>0.0007025000089029297</v>
+        <v>0.0007583539888766682</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.096387328624388</v>
+        <v>3.542691854126645</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.048098539574681</v>
+        <v>1.746990027703276</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.922534141045332</v>
+        <v>2.99101901986046</v>
       </c>
       <c r="C23">
-        <v>1.906581146917915</v>
+        <v>0.5653129289438539</v>
       </c>
       <c r="D23">
-        <v>0.04589992003612764</v>
+        <v>0.02922894433216783</v>
       </c>
       <c r="E23">
-        <v>2.807024065333152</v>
+        <v>2.557119534226004</v>
       </c>
       <c r="F23">
-        <v>4.243208009723958</v>
+        <v>2.838133232726022</v>
       </c>
       <c r="G23">
-        <v>0.0007076466475495405</v>
+        <v>0.0007619592742973368</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.003235210079055</v>
+        <v>3.394900444385542</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.03820527331068</v>
+        <v>1.729671212800952</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.761542843515997</v>
+        <v>2.516146344919946</v>
       </c>
       <c r="C24">
-        <v>1.582348177801975</v>
+        <v>0.4731446969176716</v>
       </c>
       <c r="D24">
-        <v>0.04087131992552173</v>
+        <v>0.03240334008103929</v>
       </c>
       <c r="E24">
-        <v>2.294574705783774</v>
+        <v>2.11952950151435</v>
       </c>
       <c r="F24">
-        <v>3.561032429246779</v>
+        <v>2.465764355083635</v>
       </c>
       <c r="G24">
-        <v>0.0007268666290844269</v>
+        <v>0.0007756226643841673</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.6656142953006</v>
+        <v>2.851250529246471</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.011883223855889</v>
+        <v>1.672202243714665</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.58900236563818</v>
+        <v>2.026587526014168</v>
       </c>
       <c r="C25">
-        <v>1.256374346455402</v>
+        <v>0.3785760741302511</v>
       </c>
       <c r="D25">
-        <v>0.03700670000399953</v>
+        <v>0.03601213459516117</v>
       </c>
       <c r="E25">
-        <v>1.794529374791679</v>
+        <v>1.679033279112986</v>
       </c>
       <c r="F25">
-        <v>2.891084157676914</v>
+        <v>2.091857938224649</v>
       </c>
       <c r="G25">
-        <v>0.0007473837762758118</v>
+        <v>0.0007905149192753208</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.325024882170169</v>
+        <v>2.291343729953724</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.001875069806928</v>
+        <v>1.624517111404032</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_57/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.680074547450403</v>
+        <v>1.072503589256314</v>
       </c>
       <c r="C2">
-        <v>0.3118441062253794</v>
+        <v>0.3021702712458421</v>
       </c>
       <c r="D2">
-        <v>0.03879097107055252</v>
+        <v>0.04166325006666227</v>
       </c>
       <c r="E2">
-        <v>1.373189022446752</v>
+        <v>1.377754115090312</v>
       </c>
       <c r="F2">
-        <v>1.834494974827265</v>
+        <v>0.723171032151356</v>
       </c>
       <c r="G2">
-        <v>0.0008017265230321314</v>
+        <v>0.6331036227875728</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.001786731985534473</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4417631467069185</v>
       </c>
       <c r="K2">
-        <v>1.895278540645592</v>
+        <v>0.3981738804962731</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.321843442159292</v>
       </c>
       <c r="N2">
-        <v>1.599171737119406</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0.7521404596945906</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.451648452499427</v>
+        <v>0.9310624274899624</v>
       </c>
       <c r="C3">
-        <v>0.2679087676842755</v>
+        <v>0.2620389535809124</v>
       </c>
       <c r="D3">
-        <v>0.04073673881907602</v>
+        <v>0.03888709566233572</v>
       </c>
       <c r="E3">
-        <v>1.174037997315125</v>
+        <v>1.183809735808893</v>
       </c>
       <c r="F3">
-        <v>1.668824016863326</v>
+        <v>0.669523573037381</v>
       </c>
       <c r="G3">
-        <v>0.0008095255172285306</v>
+        <v>0.5872758185341524</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0008000479211531797</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4265061596762791</v>
       </c>
       <c r="K3">
-        <v>1.634242730206608</v>
+        <v>0.3865304476302249</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.146630203931181</v>
       </c>
       <c r="N3">
-        <v>1.587042012018728</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0.7884026306590322</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.313904821740721</v>
+        <v>0.8441187097987779</v>
       </c>
       <c r="C4">
-        <v>0.2414226100910639</v>
+        <v>0.2378263289494953</v>
       </c>
       <c r="D4">
-        <v>0.0419589085433838</v>
+        <v>0.0371782773565954</v>
       </c>
       <c r="E4">
-        <v>1.054825354249857</v>
+        <v>1.066796909108533</v>
       </c>
       <c r="F4">
-        <v>1.570720671640672</v>
+        <v>0.6374849298148888</v>
       </c>
       <c r="G4">
-        <v>0.0008144265333191114</v>
+        <v>0.5599750622291282</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0005023793730902781</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4176488724109646</v>
       </c>
       <c r="K4">
-        <v>1.476836497454599</v>
+        <v>0.3797450332602601</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.039445750664896</v>
       </c>
       <c r="N4">
-        <v>1.581787468880918</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0.8114101317510816</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.258318038986516</v>
+        <v>0.807828112444497</v>
       </c>
       <c r="C5">
-        <v>0.2307332800510835</v>
+        <v>0.2284663280026535</v>
       </c>
       <c r="D5">
-        <v>0.04246343518808082</v>
+        <v>0.03652479619898941</v>
       </c>
       <c r="E5">
-        <v>1.006893308211232</v>
+        <v>1.019546548625954</v>
       </c>
       <c r="F5">
-        <v>1.53156011948758</v>
+        <v>0.6239561386684755</v>
       </c>
       <c r="G5">
-        <v>0.0008164537819977183</v>
+        <v>0.54829935497132</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0005171251486109085</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4137814236005113</v>
       </c>
       <c r="K5">
-        <v>1.413311731378769</v>
+        <v>0.3765362866905058</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.9956584588638577</v>
       </c>
       <c r="N5">
-        <v>1.580157984969603</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0.8206543602912379</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.249118421029607</v>
+        <v>0.8007915412256921</v>
       </c>
       <c r="C6">
-        <v>0.2289640762526517</v>
+        <v>0.2274230152381023</v>
       </c>
       <c r="D6">
-        <v>0.04254759197909408</v>
+        <v>0.03647026606030934</v>
       </c>
       <c r="E6">
-        <v>0.9989700166505031</v>
+        <v>1.011714173582064</v>
       </c>
       <c r="F6">
-        <v>1.52510435064427</v>
+        <v>0.6208892959631314</v>
       </c>
       <c r="G6">
-        <v>0.0008167922688247281</v>
+        <v>0.5454639176281688</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0006092627919356275</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4126837535656023</v>
       </c>
       <c r="K6">
-        <v>1.402798095127338</v>
+        <v>0.3753625317050044</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.9881655883446285</v>
       </c>
       <c r="N6">
-        <v>1.579917227942403</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0.8218204217789431</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.313153061555937</v>
+        <v>0.8408647471425752</v>
       </c>
       <c r="C7">
-        <v>0.2412780531589931</v>
+        <v>0.2390835975451751</v>
       </c>
       <c r="D7">
-        <v>0.04196568702469428</v>
+        <v>0.03731782243272619</v>
       </c>
       <c r="E7">
-        <v>1.054176455156409</v>
+        <v>1.066126239271497</v>
       </c>
       <c r="F7">
-        <v>1.570189345857642</v>
+        <v>0.6350249948679121</v>
       </c>
       <c r="G7">
-        <v>0.0008144537496058511</v>
+        <v>0.5573339402069308</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0007190797227147883</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4163325213425395</v>
       </c>
       <c r="K7">
-        <v>1.475977400223911</v>
+        <v>0.3779358009569975</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1.038234125713217</v>
       </c>
       <c r="N7">
-        <v>1.581763470750403</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0.8105088934157507</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.600737439976456</v>
+        <v>1.020041952497422</v>
       </c>
       <c r="C8">
-        <v>0.296581211545714</v>
+        <v>0.2900842317044265</v>
       </c>
       <c r="D8">
-        <v>0.03945589471959821</v>
+        <v>0.04090678491490962</v>
       </c>
       <c r="E8">
-        <v>1.303806786307362</v>
+        <v>1.310353518265146</v>
       </c>
       <c r="F8">
-        <v>1.77656189278747</v>
+        <v>0.7014504827215617</v>
       </c>
       <c r="G8">
-        <v>0.0008043934105150218</v>
+        <v>0.6138188436414396</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.0016308429565699</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.4347183450853009</v>
       </c>
       <c r="K8">
-        <v>1.80461287741042</v>
+        <v>0.3917407115466922</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.260494105300467</v>
       </c>
       <c r="N8">
-        <v>1.594509149846033</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0.7631859672235599</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.188993428884601</v>
+        <v>1.376256088118623</v>
       </c>
       <c r="C9">
-        <v>0.409904825251175</v>
+        <v>0.3916266746071244</v>
       </c>
       <c r="D9">
-        <v>0.03477549537836744</v>
+        <v>0.04764378442079931</v>
       </c>
       <c r="E9">
-        <v>1.824031900406268</v>
+        <v>1.809670314257417</v>
       </c>
       <c r="F9">
-        <v>2.214662601322786</v>
+        <v>0.843873261600109</v>
       </c>
       <c r="G9">
-        <v>0.0007854670471413868</v>
+        <v>0.7366128832362335</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.005811195386937307</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.4774871476688958</v>
       </c>
       <c r="K9">
-        <v>2.477034350752518</v>
+        <v>0.4251805909565505</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.701830502652939</v>
       </c>
       <c r="N9">
-        <v>1.638909485427519</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0.6783005612805191</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.642958859354621</v>
+        <v>1.637358566795456</v>
       </c>
       <c r="C10">
-        <v>0.4977113851389845</v>
+        <v>0.4703712414003576</v>
       </c>
       <c r="D10">
-        <v>0.03152506084379425</v>
+        <v>0.05266106763398426</v>
       </c>
       <c r="E10">
-        <v>2.235350838295943</v>
+        <v>2.194938400528329</v>
       </c>
       <c r="F10">
-        <v>2.564334350405744</v>
+        <v>0.9536814970200993</v>
       </c>
       <c r="G10">
-        <v>0.0007719080463944878</v>
+        <v>0.8315877192853662</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.0110199669435227</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.5116047910922532</v>
       </c>
       <c r="K10">
-        <v>2.996371671911277</v>
+        <v>0.4513102448313902</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2.03023375125909</v>
       </c>
       <c r="N10">
-        <v>1.686539507863031</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0.6197014309063675</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.856041752768135</v>
+        <v>1.751793863657383</v>
       </c>
       <c r="C11">
-        <v>0.539065503862787</v>
+        <v>0.5095373241020411</v>
       </c>
       <c r="D11">
-        <v>0.0300996656977226</v>
+        <v>0.0552046217095068</v>
       </c>
       <c r="E11">
-        <v>2.431648288519852</v>
+        <v>2.375652976402606</v>
       </c>
       <c r="F11">
-        <v>2.731406374876428</v>
+        <v>1.001565790481081</v>
       </c>
       <c r="G11">
-        <v>0.0007657772275921239</v>
+        <v>0.8723203841256719</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01423020587467061</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.5259247503135782</v>
       </c>
       <c r="K11">
-        <v>3.240311798200423</v>
+        <v>0.4609509784691141</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2.179948533626401</v>
       </c>
       <c r="N11">
-        <v>1.712307655701778</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0.5926720266022869</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.937856053891835</v>
+        <v>1.797720436362198</v>
       </c>
       <c r="C12">
-        <v>0.5549699984066478</v>
+        <v>0.5232855149924376</v>
       </c>
       <c r="D12">
-        <v>0.02956893390138404</v>
+        <v>0.05602999090329774</v>
       </c>
       <c r="E12">
-        <v>2.507594303207455</v>
+        <v>2.445086128123421</v>
       </c>
       <c r="F12">
-        <v>2.796016469678534</v>
+        <v>1.021983966368893</v>
       </c>
       <c r="G12">
-        <v>0.0007634572903732017</v>
+        <v>0.8902004741411957</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01537068916711437</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.532588357539197</v>
       </c>
       <c r="K12">
-        <v>3.334006974787144</v>
+        <v>0.4662449133479285</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2.23747272867169</v>
       </c>
       <c r="N12">
-        <v>1.722738407411555</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0.5833517934130832</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.920182714467785</v>
+        <v>1.788333064794841</v>
       </c>
       <c r="C13">
-        <v>0.5515330636107194</v>
+        <v>0.5200648268819066</v>
       </c>
       <c r="D13">
-        <v>0.02968280922250877</v>
+        <v>0.05582427079630037</v>
       </c>
       <c r="E13">
-        <v>2.491161026784994</v>
+        <v>2.430099312189171</v>
       </c>
       <c r="F13">
-        <v>2.782038388573824</v>
+        <v>1.017978041842298</v>
       </c>
       <c r="G13">
-        <v>0.0007639569210124361</v>
+        <v>0.886777573700769</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01508631123577953</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.5313684449217959</v>
       </c>
       <c r="K13">
-        <v>3.313765542210547</v>
+        <v>0.4654093534815544</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>2.225190676071406</v>
       </c>
       <c r="N13">
-        <v>1.720460565439879</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0.5855014090699591</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.862749002502937</v>
+        <v>1.755785914920494</v>
       </c>
       <c r="C14">
-        <v>0.5403688105467666</v>
+        <v>0.5105579311670283</v>
       </c>
       <c r="D14">
-        <v>0.03005581195576568</v>
+        <v>0.05526065953117154</v>
       </c>
       <c r="E14">
-        <v>2.437862233335096</v>
+        <v>2.38135018712957</v>
       </c>
       <c r="F14">
-        <v>2.736693750681241</v>
+        <v>1.003411527467208</v>
       </c>
       <c r="G14">
-        <v>0.0007655863547833329</v>
+        <v>0.8739727742034091</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.0143071214361612</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.5265642158557142</v>
       </c>
       <c r="K14">
-        <v>3.247992346896126</v>
+        <v>0.4615157292704311</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>2.184726096279491</v>
       </c>
       <c r="N14">
-        <v>1.713151790816994</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0.5919657243510876</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.827721425611401</v>
+        <v>1.734864020505199</v>
       </c>
       <c r="C15">
-        <v>0.5335635917435582</v>
+        <v>0.5052528337203057</v>
       </c>
       <c r="D15">
-        <v>0.03028550985364653</v>
+        <v>0.05497040030786593</v>
       </c>
       <c r="E15">
-        <v>2.405434742815231</v>
+        <v>2.351596211811056</v>
       </c>
       <c r="F15">
-        <v>2.709100038261965</v>
+        <v>0.9937311352299361</v>
       </c>
       <c r="G15">
-        <v>0.0007665845282186334</v>
+        <v>0.8652995731347204</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01391457024703424</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.5232040312351955</v>
       </c>
       <c r="K15">
-        <v>3.207883247411701</v>
+        <v>0.4585362891788876</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>2.15974166437303</v>
       </c>
       <c r="N15">
-        <v>1.708765278063879</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0.5956503995983162</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.629180358934832</v>
+        <v>1.621512651990713</v>
       </c>
       <c r="C16">
-        <v>0.4950405974905721</v>
+        <v>0.4719976975255804</v>
       </c>
       <c r="D16">
-        <v>0.03161939586184914</v>
+        <v>0.05295498682641409</v>
       </c>
       <c r="E16">
-        <v>2.222730911427121</v>
+        <v>2.183078493294886</v>
       </c>
       <c r="F16">
-        <v>2.553592672998747</v>
+        <v>0.9438920013590604</v>
       </c>
       <c r="G16">
-        <v>0.0007723091571107616</v>
+        <v>0.8216664095539556</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01139092520998464</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.5070116861868428</v>
       </c>
       <c r="K16">
-        <v>2.980601959376827</v>
+        <v>0.4455611981503438</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>2.018538041562692</v>
       </c>
       <c r="N16">
-        <v>1.684944847205458</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0.618954144209372</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.509184422998828</v>
+        <v>1.552139098210944</v>
       </c>
       <c r="C17">
-        <v>0.4717969146912253</v>
+        <v>0.4518450350317664</v>
       </c>
       <c r="D17">
-        <v>0.03245221344295501</v>
+        <v>0.05171620370551011</v>
       </c>
       <c r="E17">
-        <v>2.113192133070228</v>
+        <v>2.081225258900574</v>
       </c>
       <c r="F17">
-        <v>2.460372192307844</v>
+        <v>0.9138101655366881</v>
       </c>
       <c r="G17">
-        <v>0.0007758281218221344</v>
+        <v>0.7953778155245459</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.009994855118565127</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.4973281625695023</v>
       </c>
       <c r="K17">
-        <v>2.843284608102806</v>
+        <v>0.437799580705061</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.932320578685733</v>
       </c>
       <c r="N17">
-        <v>1.671437470961706</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0.6335246444479985</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.440772300486117</v>
+        <v>1.514812058139825</v>
       </c>
       <c r="C18">
-        <v>0.4585576648163396</v>
+        <v>0.4390771054640936</v>
       </c>
       <c r="D18">
-        <v>0.03293614062329908</v>
+        <v>0.05086367394677893</v>
       </c>
       <c r="E18">
-        <v>2.051032748582429</v>
+        <v>2.023205304065328</v>
       </c>
       <c r="F18">
-        <v>2.407494580082499</v>
+        <v>0.8986997636553582</v>
       </c>
       <c r="G18">
-        <v>0.000777855893394347</v>
+        <v>0.7826235200826517</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.009031721480896593</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.4929559370473982</v>
       </c>
       <c r="K18">
-        <v>2.765012611213393</v>
+        <v>0.4349521151798967</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.883449717220941</v>
       </c>
       <c r="N18">
-        <v>1.664048729591229</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0.6427731763344298</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.417708238203659</v>
+        <v>1.500236327696598</v>
       </c>
       <c r="C19">
-        <v>0.4540962269112754</v>
+        <v>0.4357405979300495</v>
       </c>
       <c r="D19">
-        <v>0.03310079678691125</v>
+        <v>0.05068216832308536</v>
       </c>
       <c r="E19">
-        <v>2.03012363846446</v>
+        <v>2.003607231541125</v>
       </c>
       <c r="F19">
-        <v>2.389712880375725</v>
+        <v>0.8920526614241311</v>
       </c>
       <c r="G19">
-        <v>0.0007785432102776949</v>
+        <v>0.776634613996265</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.008875337229140356</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.4906335853384718</v>
       </c>
       <c r="K19">
-        <v>2.738626872136848</v>
+        <v>0.4328051558160197</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.866475171747481</v>
       </c>
       <c r="N19">
-        <v>1.661610019890233</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0.6453266532377206</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.521894224365269</v>
+        <v>1.559716613997779</v>
       </c>
       <c r="C20">
-        <v>0.474257518706338</v>
+        <v>0.4538822859346965</v>
       </c>
       <c r="D20">
-        <v>0.03236304117419486</v>
+        <v>0.05183721578846701</v>
       </c>
       <c r="E20">
-        <v>2.124763384432796</v>
+        <v>2.092017351741802</v>
       </c>
       <c r="F20">
-        <v>2.47021774635472</v>
+        <v>0.9171532239436431</v>
       </c>
       <c r="G20">
-        <v>0.0007754531582232839</v>
+        <v>0.7983316998118255</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01012101306074431</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.4984369947559912</v>
       </c>
       <c r="K20">
-        <v>2.857827414170089</v>
+        <v>0.4387400504799288</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.941530089940414</v>
       </c>
       <c r="N20">
-        <v>1.672835427456789</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0.6320234251558041</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.87958659111996</v>
+        <v>1.762498786268736</v>
       </c>
       <c r="C21">
-        <v>0.5436410172069657</v>
+        <v>0.5147606219674401</v>
       </c>
       <c r="D21">
-        <v>0.02994599421821675</v>
+        <v>0.05558312276639299</v>
       </c>
       <c r="E21">
-        <v>2.45347102594647</v>
+        <v>2.395578033164568</v>
       </c>
       <c r="F21">
-        <v>2.749974424182597</v>
+        <v>1.00541561047946</v>
       </c>
       <c r="G21">
-        <v>0.0007651077373576706</v>
+        <v>0.8752582302722232</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.01474134246533509</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.5267290283626096</v>
       </c>
       <c r="K21">
-        <v>3.267273818753949</v>
+        <v>0.4609228976706703</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>2.195940791870271</v>
       </c>
       <c r="N21">
-        <v>1.71527956470274</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0.5892257630202593</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.120017686471385</v>
+        <v>1.899269533491974</v>
       </c>
       <c r="C22">
-        <v>0.5904374207340197</v>
+        <v>0.5536514551966434</v>
       </c>
       <c r="D22">
-        <v>0.02841986453175416</v>
+        <v>0.05782415963469845</v>
       </c>
       <c r="E22">
-        <v>2.677876152058175</v>
+        <v>2.599669245555461</v>
       </c>
       <c r="F22">
-        <v>2.94075482425535</v>
+        <v>1.067725984235409</v>
       </c>
       <c r="G22">
-        <v>0.0007583539888766682</v>
+        <v>0.9303716887125688</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.01802554096172759</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.5476750743412993</v>
       </c>
       <c r="K22">
-        <v>3.542691854126645</v>
+        <v>0.4783193762040412</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2.364557524021421</v>
       </c>
       <c r="N22">
-        <v>1.746990027703276</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0.5632564599089633</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.99101901986046</v>
+        <v>1.829642121079928</v>
       </c>
       <c r="C23">
-        <v>0.5653129289438539</v>
+        <v>0.5310995870557065</v>
       </c>
       <c r="D23">
-        <v>0.02922894433216783</v>
+        <v>0.05643959881989957</v>
       </c>
       <c r="E23">
-        <v>2.557119534226004</v>
+        <v>2.490253445944717</v>
       </c>
       <c r="F23">
-        <v>2.838133232726022</v>
+        <v>1.037033333414755</v>
       </c>
       <c r="G23">
-        <v>0.0007619592742973368</v>
+        <v>0.9037674681740384</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01598901798943864</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.5379090695257673</v>
       </c>
       <c r="K23">
-        <v>3.394900444385542</v>
+        <v>0.4710589100115499</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2.275213916355824</v>
       </c>
       <c r="N23">
-        <v>1.729671212800952</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0.5780352573731662</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.516146344919946</v>
+        <v>1.561640564286819</v>
       </c>
       <c r="C24">
-        <v>0.4731446969176716</v>
+        <v>0.4502930576384756</v>
       </c>
       <c r="D24">
-        <v>0.03240334008103929</v>
+        <v>0.05148804934508888</v>
       </c>
       <c r="E24">
-        <v>2.11952950151435</v>
+        <v>2.087242841627017</v>
       </c>
       <c r="F24">
-        <v>2.465764355083635</v>
+        <v>0.9199251447505077</v>
       </c>
       <c r="G24">
-        <v>0.0007756226643841673</v>
+        <v>0.8016611651831056</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.009655146539768289</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.5002879765543895</v>
       </c>
       <c r="K24">
-        <v>2.851250529246471</v>
+        <v>0.4415970318002493</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.93860440073874</v>
       </c>
       <c r="N24">
-        <v>1.672202243714665</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0.6343323694804361</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.026587526014168</v>
+        <v>1.274680055528705</v>
       </c>
       <c r="C25">
-        <v>0.3785760741302511</v>
+        <v>0.3661901880479093</v>
       </c>
       <c r="D25">
-        <v>0.03601213459516117</v>
+        <v>0.04610377390841336</v>
       </c>
       <c r="E25">
-        <v>1.679033279112986</v>
+        <v>1.671745535645883</v>
       </c>
       <c r="F25">
-        <v>2.091857938224649</v>
+        <v>0.8001943166335366</v>
       </c>
       <c r="G25">
-        <v>0.0007905149192753208</v>
+        <v>0.6979256681882759</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.004702827379037267</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.4630946930683137</v>
       </c>
       <c r="K25">
-        <v>2.291343729953724</v>
+        <v>0.412549815324688</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.580616223635644</v>
       </c>
       <c r="N25">
-        <v>1.624517111404032</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.6988885142145307</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_57/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.072503589256314</v>
+        <v>1.001873673928316</v>
       </c>
       <c r="C2">
-        <v>0.3021702712458421</v>
+        <v>0.3334642218305532</v>
       </c>
       <c r="D2">
-        <v>0.04166325006666227</v>
+        <v>0.0457171437404682</v>
       </c>
       <c r="E2">
-        <v>1.377754115090312</v>
+        <v>1.377302802026648</v>
       </c>
       <c r="F2">
-        <v>0.723171032151356</v>
+        <v>0.6621120131786569</v>
       </c>
       <c r="G2">
-        <v>0.6331036227875728</v>
+        <v>0.5461033486374163</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.001786731985534473</v>
+        <v>0.001987674229459557</v>
       </c>
       <c r="J2">
-        <v>0.4417631467069185</v>
+        <v>0.4488770430668723</v>
       </c>
       <c r="K2">
-        <v>0.3981738804962731</v>
+        <v>0.3476707677709214</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1853418981225907</v>
       </c>
       <c r="M2">
-        <v>1.321843442159292</v>
+        <v>0.08838555055310948</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.304976170920867</v>
       </c>
       <c r="P2">
-        <v>0.7521404596945906</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.7218912703047327</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9310624274899624</v>
+        <v>0.8747285336197024</v>
       </c>
       <c r="C3">
-        <v>0.2620389535809124</v>
+        <v>0.2862694517223758</v>
       </c>
       <c r="D3">
-        <v>0.03888709566233572</v>
+        <v>0.0418833423070879</v>
       </c>
       <c r="E3">
-        <v>1.183809735808893</v>
+        <v>1.184071607304745</v>
       </c>
       <c r="F3">
-        <v>0.669523573037381</v>
+        <v>0.6174940558462865</v>
       </c>
       <c r="G3">
-        <v>0.5872758185341524</v>
+        <v>0.5106928290501287</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0008000479211531797</v>
+        <v>0.001045241517056983</v>
       </c>
       <c r="J3">
-        <v>0.4265061596762791</v>
+        <v>0.4347374097569627</v>
       </c>
       <c r="K3">
-        <v>0.3865304476302249</v>
+        <v>0.341669044143341</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1884841623071765</v>
       </c>
       <c r="M3">
-        <v>1.146630203931181</v>
+        <v>0.08141228777333609</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.134104586074386</v>
       </c>
       <c r="P3">
-        <v>0.7884026306590322</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.7570963890159295</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8441187097987779</v>
+        <v>0.7962807812866401</v>
       </c>
       <c r="C4">
-        <v>0.2378263289494953</v>
+        <v>0.2578523937314117</v>
       </c>
       <c r="D4">
-        <v>0.0371782773565954</v>
+        <v>0.03953704807737779</v>
       </c>
       <c r="E4">
-        <v>1.066796909108533</v>
+        <v>1.06739134282671</v>
       </c>
       <c r="F4">
-        <v>0.6374849298148888</v>
+        <v>0.5907456033414675</v>
       </c>
       <c r="G4">
-        <v>0.5599750622291282</v>
+        <v>0.4897297387207118</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0005023793730902781</v>
+        <v>0.0007068859668075689</v>
       </c>
       <c r="J4">
-        <v>0.4176488724109646</v>
+        <v>0.4261967818577261</v>
       </c>
       <c r="K4">
-        <v>0.3797450332602601</v>
+        <v>0.3381845893012851</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1903861608993722</v>
       </c>
       <c r="M4">
-        <v>1.039445750664896</v>
+        <v>0.07783238847648555</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.029405477898706</v>
       </c>
       <c r="P4">
-        <v>0.8114101317510816</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.7794116367051576</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.807828112444497</v>
+        <v>0.7634308725849621</v>
       </c>
       <c r="C5">
-        <v>0.2284663280026535</v>
+        <v>0.2468317163433227</v>
       </c>
       <c r="D5">
-        <v>0.03652479619898941</v>
+        <v>0.03862985374381722</v>
       </c>
       <c r="E5">
-        <v>1.019546548625954</v>
+        <v>1.020255065713457</v>
       </c>
       <c r="F5">
-        <v>0.6239561386684755</v>
+        <v>0.5793562859058241</v>
       </c>
       <c r="G5">
-        <v>0.54829935497132</v>
+        <v>0.4806845146608225</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0005171251486109085</v>
+        <v>0.0007015860577936905</v>
       </c>
       <c r="J5">
-        <v>0.4137814236005113</v>
+        <v>0.422385271372022</v>
       </c>
       <c r="K5">
-        <v>0.3765362866905058</v>
+        <v>0.3363376510963718</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1909288162589284</v>
       </c>
       <c r="M5">
-        <v>0.9956584588638577</v>
+        <v>0.07641390388319103</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.9865968602641146</v>
       </c>
       <c r="P5">
-        <v>0.8206543602912379</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.7884411929884294</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8007915412256921</v>
+        <v>0.7570170162148031</v>
       </c>
       <c r="C6">
-        <v>0.2274230152381023</v>
+        <v>0.2455393256650638</v>
       </c>
       <c r="D6">
-        <v>0.03647026606030934</v>
+        <v>0.03853723801178077</v>
       </c>
       <c r="E6">
-        <v>1.011714173582064</v>
+        <v>1.01244125529135</v>
       </c>
       <c r="F6">
-        <v>0.6208892959631314</v>
+        <v>0.5766948876921418</v>
       </c>
       <c r="G6">
-        <v>0.5454639176281688</v>
+        <v>0.4783612703577944</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0006092627919356275</v>
+        <v>0.0008060266338336675</v>
       </c>
       <c r="J6">
-        <v>0.4126837535656023</v>
+        <v>0.421310242364541</v>
       </c>
       <c r="K6">
-        <v>0.3753625317050044</v>
+        <v>0.3354560173711505</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1907440228377695</v>
       </c>
       <c r="M6">
-        <v>0.9881655883446285</v>
+        <v>0.07602621666783982</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.97927236643838</v>
       </c>
       <c r="P6">
-        <v>0.8218204217789431</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.7896661340041451</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8408647471425752</v>
+        <v>0.7926271586833877</v>
       </c>
       <c r="C7">
-        <v>0.2390835975451751</v>
+        <v>0.2585478931684122</v>
       </c>
       <c r="D7">
-        <v>0.03731782243272619</v>
+        <v>0.03979033462846004</v>
       </c>
       <c r="E7">
-        <v>1.066126239271497</v>
+        <v>1.066702242163032</v>
       </c>
       <c r="F7">
-        <v>0.6350249948679121</v>
+        <v>0.5870932557489823</v>
       </c>
       <c r="G7">
-        <v>0.5573339402069308</v>
+        <v>0.4905829104906161</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0007190797227147883</v>
+        <v>0.0009649121667152372</v>
       </c>
       <c r="J7">
-        <v>0.4163325213425395</v>
+        <v>0.4191924541258061</v>
       </c>
       <c r="K7">
-        <v>0.3779358009569975</v>
+        <v>0.3359223910776024</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1893528699618052</v>
       </c>
       <c r="M7">
-        <v>1.038234125713217</v>
+        <v>0.07716018041932315</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.026939087917214</v>
       </c>
       <c r="P7">
-        <v>0.8105088934157507</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.7784177890677935</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.020041952497422</v>
+        <v>0.9526067950049537</v>
       </c>
       <c r="C8">
-        <v>0.2900842317044265</v>
+        <v>0.3169600929664682</v>
       </c>
       <c r="D8">
-        <v>0.04090678491490962</v>
+        <v>0.04497209584557993</v>
       </c>
       <c r="E8">
-        <v>1.310353518265146</v>
+        <v>1.31008995883856</v>
       </c>
       <c r="F8">
-        <v>0.7014504827215617</v>
+        <v>0.6392195974858979</v>
       </c>
       <c r="G8">
-        <v>0.6138188436414396</v>
+        <v>0.5416016120706075</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.0016308429565699</v>
+        <v>0.001906165920533276</v>
       </c>
       <c r="J8">
-        <v>0.4347183450853009</v>
+        <v>0.4235346644447162</v>
       </c>
       <c r="K8">
-        <v>0.3917407115466922</v>
+        <v>0.3413148977160283</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1845984858158261</v>
       </c>
       <c r="M8">
-        <v>1.260494105300467</v>
+        <v>0.08445333138538658</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.240858700043162</v>
       </c>
       <c r="P8">
-        <v>0.7631859672235599</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.7319002653104842</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.376256088118623</v>
+        <v>1.270594812840301</v>
       </c>
       <c r="C9">
-        <v>0.3916266746071244</v>
+        <v>0.4361860711404404</v>
       </c>
       <c r="D9">
-        <v>0.04764378442079931</v>
+        <v>0.05452088512259934</v>
       </c>
       <c r="E9">
-        <v>1.809670314257417</v>
+        <v>1.806758052223685</v>
       </c>
       <c r="F9">
-        <v>0.843873261600109</v>
+        <v>0.7560722427290045</v>
       </c>
       <c r="G9">
-        <v>0.7366128832362335</v>
+        <v>0.6409171287344719</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.005811195386937307</v>
+        <v>0.005470780631474881</v>
       </c>
       <c r="J9">
-        <v>0.4774871476688958</v>
+        <v>0.4559009586298544</v>
       </c>
       <c r="K9">
-        <v>0.4251805909565505</v>
+        <v>0.358884608004729</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1773763872348262</v>
       </c>
       <c r="M9">
-        <v>1.701830502652939</v>
+        <v>0.1061202288851533</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.668812300535137</v>
       </c>
       <c r="P9">
-        <v>0.6783005612805191</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.648960285741893</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.637358566795456</v>
+        <v>1.498229246647782</v>
       </c>
       <c r="C10">
-        <v>0.4703712414003576</v>
+        <v>0.5248932132979292</v>
       </c>
       <c r="D10">
-        <v>0.05266106763398426</v>
+        <v>0.06236065176202032</v>
       </c>
       <c r="E10">
-        <v>2.194938400528329</v>
+        <v>2.18880896412432</v>
       </c>
       <c r="F10">
-        <v>0.9536814970200993</v>
+        <v>0.8375008829276993</v>
       </c>
       <c r="G10">
-        <v>0.8315877192853662</v>
+        <v>0.738157333811742</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.0110199669435227</v>
+        <v>0.009734731909029293</v>
       </c>
       <c r="J10">
-        <v>0.5116047910922532</v>
+        <v>0.4481287896514203</v>
       </c>
       <c r="K10">
-        <v>0.4513102448313902</v>
+        <v>0.36872301702941</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1703805959631559</v>
       </c>
       <c r="M10">
-        <v>2.03023375125909</v>
+        <v>0.1239838147664969</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.97814448644516</v>
       </c>
       <c r="P10">
-        <v>0.6197014309063675</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.5902710566661513</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.751793863657383</v>
+        <v>1.590802322086887</v>
       </c>
       <c r="C11">
-        <v>0.5095373241020411</v>
+        <v>0.56215202755169</v>
       </c>
       <c r="D11">
-        <v>0.0552046217095068</v>
+        <v>0.06748491337025087</v>
       </c>
       <c r="E11">
-        <v>2.375652976402606</v>
+        <v>2.367299400187008</v>
       </c>
       <c r="F11">
-        <v>1.001565790481081</v>
+        <v>0.8582174419852464</v>
       </c>
       <c r="G11">
-        <v>0.8723203841256719</v>
+        <v>0.8162465152489347</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.01423020587467061</v>
+        <v>0.01238275028453018</v>
       </c>
       <c r="J11">
-        <v>0.5259247503135782</v>
+        <v>0.3915243783429077</v>
       </c>
       <c r="K11">
-        <v>0.4609509784691141</v>
+        <v>0.3646069509267846</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.164159660965332</v>
       </c>
       <c r="M11">
-        <v>2.179948533626401</v>
+        <v>0.1292020338401834</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2.104816349538737</v>
       </c>
       <c r="P11">
-        <v>0.5926720266022869</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.5616807392056771</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.797720436362198</v>
+        <v>1.627340699295445</v>
       </c>
       <c r="C12">
-        <v>0.5232855149924376</v>
+        <v>0.5742608473458404</v>
       </c>
       <c r="D12">
-        <v>0.05602999090329774</v>
+        <v>0.06944819818082948</v>
       </c>
       <c r="E12">
-        <v>2.445086128123421</v>
+        <v>2.435761617433045</v>
       </c>
       <c r="F12">
-        <v>1.021983966368893</v>
+        <v>0.8662792512978825</v>
       </c>
       <c r="G12">
-        <v>0.8902004741411957</v>
+        <v>0.8532662829354223</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.01537068916711437</v>
+        <v>0.01322787308768714</v>
       </c>
       <c r="J12">
-        <v>0.532588357539197</v>
+        <v>0.3665119045526382</v>
       </c>
       <c r="K12">
-        <v>0.4662449133479285</v>
+        <v>0.3635957497687556</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1620276398611971</v>
       </c>
       <c r="M12">
-        <v>2.23747272867169</v>
+        <v>0.1314526246066166</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.151692615422718</v>
       </c>
       <c r="P12">
-        <v>0.5833517934130832</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.5512540222967441</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.788333064794841</v>
+        <v>1.619978928726283</v>
       </c>
       <c r="C13">
-        <v>0.5200648268819066</v>
+        <v>0.5714189545828674</v>
       </c>
       <c r="D13">
-        <v>0.05582427079630037</v>
+        <v>0.06898498017910981</v>
       </c>
       <c r="E13">
-        <v>2.430099312189171</v>
+        <v>2.42098842310736</v>
       </c>
       <c r="F13">
-        <v>1.017978041842298</v>
+        <v>0.8649763528735264</v>
       </c>
       <c r="G13">
-        <v>0.886777573700769</v>
+        <v>0.8454551457155048</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.01508631123577953</v>
+        <v>0.01299849052392332</v>
       </c>
       <c r="J13">
-        <v>0.5313684449217959</v>
+        <v>0.3722222642537218</v>
       </c>
       <c r="K13">
-        <v>0.4654093534815544</v>
+        <v>0.3641035354137472</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1625848796709342</v>
       </c>
       <c r="M13">
-        <v>2.225190676071406</v>
+        <v>0.1310861096905356</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>2.141783257637144</v>
       </c>
       <c r="P13">
-        <v>0.5855014090699591</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.5535680418054278</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.755785914920494</v>
+        <v>1.594024817449451</v>
       </c>
       <c r="C14">
-        <v>0.5105579311670283</v>
+        <v>0.5630493341128613</v>
       </c>
       <c r="D14">
-        <v>0.05526065953117154</v>
+        <v>0.06762920406589501</v>
       </c>
       <c r="E14">
-        <v>2.38135018712957</v>
+        <v>2.372918788833474</v>
       </c>
       <c r="F14">
-        <v>1.003411527467208</v>
+        <v>0.8590670579779953</v>
       </c>
       <c r="G14">
-        <v>0.8739727742034091</v>
+        <v>0.8193541702570002</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.0143071214361612</v>
+        <v>0.01243171256048736</v>
       </c>
       <c r="J14">
-        <v>0.5265642158557142</v>
+        <v>0.389614682096493</v>
       </c>
       <c r="K14">
-        <v>0.4615157292704311</v>
+        <v>0.3646483653069055</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1640267094045633</v>
       </c>
       <c r="M14">
-        <v>2.184726096279491</v>
+        <v>0.1294375742358653</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>2.108753773645702</v>
       </c>
       <c r="P14">
-        <v>0.5919657243510876</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.5608534921103727</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.734864020505199</v>
+        <v>1.577092225657907</v>
       </c>
       <c r="C15">
-        <v>0.5052528337203057</v>
+        <v>0.5583567143060577</v>
       </c>
       <c r="D15">
-        <v>0.05497040030786593</v>
+        <v>0.06688490857754203</v>
       </c>
       <c r="E15">
-        <v>2.351596211811056</v>
+        <v>2.343566751930197</v>
       </c>
       <c r="F15">
-        <v>0.9937311352299361</v>
+        <v>0.8545215019362757</v>
       </c>
       <c r="G15">
-        <v>0.8652995731347204</v>
+        <v>0.8032916665487022</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.01391457024703424</v>
+        <v>0.01218529922187628</v>
       </c>
       <c r="J15">
-        <v>0.5232040312351955</v>
+        <v>0.3994072782539035</v>
       </c>
       <c r="K15">
-        <v>0.4585362891788876</v>
+        <v>0.3643740759868379</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.16470219947362</v>
       </c>
       <c r="M15">
-        <v>2.15974166437303</v>
+        <v>0.1281852479920929</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>2.088085770287648</v>
       </c>
       <c r="P15">
-        <v>0.5956503995983162</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.565168738665097</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.621512651990713</v>
+        <v>1.48428598007095</v>
       </c>
       <c r="C16">
-        <v>0.4719976975255804</v>
+        <v>0.5267826048994948</v>
       </c>
       <c r="D16">
-        <v>0.05295498682641409</v>
+        <v>0.06256255877971739</v>
       </c>
       <c r="E16">
-        <v>2.183078493294886</v>
+        <v>2.177096268315466</v>
       </c>
       <c r="F16">
-        <v>0.9438920013590604</v>
+        <v>0.8298509524920945</v>
       </c>
       <c r="G16">
-        <v>0.8216664095539556</v>
+        <v>0.7270464593340336</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.01139092520998464</v>
+        <v>0.01029844636607358</v>
       </c>
       <c r="J16">
-        <v>0.5070116861868428</v>
+        <v>0.4479777176379542</v>
       </c>
       <c r="K16">
-        <v>0.4455611981503438</v>
+        <v>0.3645343835750978</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1692008853308664</v>
       </c>
       <c r="M16">
-        <v>2.018538041562692</v>
+        <v>0.1218609583003776</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.967800520467904</v>
       </c>
       <c r="P16">
-        <v>0.618954144209372</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.5907266804715512</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.552139098210944</v>
+        <v>1.425947472621687</v>
       </c>
       <c r="C17">
-        <v>0.4518450350317664</v>
+        <v>0.506225721698911</v>
       </c>
       <c r="D17">
-        <v>0.05171620370551011</v>
+        <v>0.06019395014553908</v>
       </c>
       <c r="E17">
-        <v>2.081225258900574</v>
+        <v>2.076300810821522</v>
       </c>
       <c r="F17">
-        <v>0.9138101655366881</v>
+        <v>0.8119937841325822</v>
       </c>
       <c r="G17">
-        <v>0.7953778155245459</v>
+        <v>0.6889554008858454</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.009994855118565127</v>
+        <v>0.009235072261926547</v>
       </c>
       <c r="J17">
-        <v>0.4973281625695023</v>
+        <v>0.4678513535623097</v>
       </c>
       <c r="K17">
-        <v>0.437799580705061</v>
+        <v>0.3633395343507146</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.171516523417246</v>
       </c>
       <c r="M17">
-        <v>1.932320578685733</v>
+        <v>0.1175914422145858</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.891221746885975</v>
       </c>
       <c r="P17">
-        <v>0.6335246444479985</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.6062658495903017</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.514812058139825</v>
+        <v>1.394247386737817</v>
       </c>
       <c r="C18">
-        <v>0.4390771054640936</v>
+        <v>0.4926388134637136</v>
       </c>
       <c r="D18">
-        <v>0.05086367394677893</v>
+        <v>0.05877458477336717</v>
       </c>
       <c r="E18">
-        <v>2.023205304065328</v>
+        <v>2.018818650924516</v>
       </c>
       <c r="F18">
-        <v>0.8986997636553582</v>
+        <v>0.8026110509849644</v>
       </c>
       <c r="G18">
-        <v>0.7826235200826517</v>
+        <v>0.6719502964493955</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.009031721480896593</v>
+        <v>0.008388421915522137</v>
       </c>
       <c r="J18">
-        <v>0.4929559370473982</v>
+        <v>0.4762805941696513</v>
       </c>
       <c r="K18">
-        <v>0.4349521151798967</v>
+        <v>0.3635214870526937</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1731689760387809</v>
       </c>
       <c r="M18">
-        <v>1.883449717220941</v>
+        <v>0.1155272028059571</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.846750635859422</v>
       </c>
       <c r="P18">
-        <v>0.6427731763344298</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.615588641953285</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.500236327696598</v>
+        <v>1.381619695219541</v>
       </c>
       <c r="C19">
-        <v>0.4357405979300495</v>
+        <v>0.4890037123714137</v>
       </c>
       <c r="D19">
-        <v>0.05068216832308536</v>
+        <v>0.0584279034350601</v>
       </c>
       <c r="E19">
-        <v>2.003607231541125</v>
+        <v>1.99939589058252</v>
       </c>
       <c r="F19">
-        <v>0.8920526614241311</v>
+        <v>0.7978467032259999</v>
       </c>
       <c r="G19">
-        <v>0.776634613996265</v>
+        <v>0.6651305734340838</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.008875337229140356</v>
+        <v>0.008310397129569935</v>
       </c>
       <c r="J19">
-        <v>0.4906335853384718</v>
+        <v>0.4776524537829658</v>
       </c>
       <c r="K19">
-        <v>0.4328051558160197</v>
+        <v>0.3624806391617454</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1733238779712174</v>
       </c>
       <c r="M19">
-        <v>1.866475171747481</v>
+        <v>0.1144064888502605</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.831101848385771</v>
       </c>
       <c r="P19">
-        <v>0.6453266532377206</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.6183773957184595</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.559716613997779</v>
+        <v>1.432393776669869</v>
       </c>
       <c r="C20">
-        <v>0.4538822859346965</v>
+        <v>0.5083525121711432</v>
       </c>
       <c r="D20">
-        <v>0.05183721578846701</v>
+        <v>0.06042388243986352</v>
       </c>
       <c r="E20">
-        <v>2.092017351741802</v>
+        <v>2.086986867478515</v>
       </c>
       <c r="F20">
-        <v>0.9171532239436431</v>
+        <v>0.8141400048516942</v>
       </c>
       <c r="G20">
-        <v>0.7983316998118255</v>
+        <v>0.6928603119348224</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.01012101306074431</v>
+        <v>0.009323436005602481</v>
       </c>
       <c r="J20">
-        <v>0.4984369947559912</v>
+        <v>0.4662225932993209</v>
       </c>
       <c r="K20">
-        <v>0.4387400504799288</v>
+        <v>0.3636185866939599</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1713249497347782</v>
       </c>
       <c r="M20">
-        <v>1.941530089940414</v>
+        <v>0.1181005818577034</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.899519779553628</v>
       </c>
       <c r="P20">
-        <v>0.6320234251558041</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.6046537355942965</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.762498786268736</v>
+        <v>1.596757925051264</v>
       </c>
       <c r="C21">
-        <v>0.5147606219674401</v>
+        <v>0.5646583454669667</v>
       </c>
       <c r="D21">
-        <v>0.05558312276639299</v>
+        <v>0.06864471750193246</v>
       </c>
       <c r="E21">
-        <v>2.395578033164568</v>
+        <v>2.386816156774998</v>
       </c>
       <c r="F21">
-        <v>1.00541561047946</v>
+        <v>0.8538388654513369</v>
       </c>
       <c r="G21">
-        <v>0.8752582302722232</v>
+        <v>0.837484257110674</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.01474134246533509</v>
+        <v>0.01283345890309651</v>
       </c>
       <c r="J21">
-        <v>0.5267290283626096</v>
+        <v>0.3667062641714836</v>
       </c>
       <c r="K21">
-        <v>0.4609228976706703</v>
+        <v>0.3607701303544175</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1623218449920394</v>
       </c>
       <c r="M21">
-        <v>2.195940791870271</v>
+        <v>0.1283806490465338</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.112954734955792</v>
       </c>
       <c r="P21">
-        <v>0.5892257630202593</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.5575829948140392</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.899269533491974</v>
+        <v>1.70645600477053</v>
       </c>
       <c r="C22">
-        <v>0.5536514551966434</v>
+        <v>0.5994506038692293</v>
       </c>
       <c r="D22">
-        <v>0.05782415963469845</v>
+        <v>0.07409069504078758</v>
       </c>
       <c r="E22">
-        <v>2.599669245555461</v>
+        <v>2.587968031743159</v>
       </c>
       <c r="F22">
-        <v>1.067725984235409</v>
+        <v>0.8813055078314562</v>
       </c>
       <c r="G22">
-        <v>0.9303716887125688</v>
+        <v>0.9459552133435807</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.01802554096172759</v>
+        <v>0.01515760262038146</v>
       </c>
       <c r="J22">
-        <v>0.5476750743412993</v>
+        <v>0.3062124273904345</v>
       </c>
       <c r="K22">
-        <v>0.4783193762040412</v>
+        <v>0.3601739069604406</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.156991597123703</v>
       </c>
       <c r="M22">
-        <v>2.364557524021421</v>
+        <v>0.1359932025054107</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.251794190546264</v>
       </c>
       <c r="P22">
-        <v>0.5632564599089633</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.528460721124671</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.829642121079928</v>
+        <v>1.652758234628266</v>
       </c>
       <c r="C23">
-        <v>0.5310995870557065</v>
+        <v>0.5807262385472427</v>
       </c>
       <c r="D23">
-        <v>0.05643959881989957</v>
+        <v>0.07062570017291137</v>
       </c>
       <c r="E23">
-        <v>2.490253445944717</v>
+        <v>2.480259912104643</v>
       </c>
       <c r="F23">
-        <v>1.037033333414755</v>
+        <v>0.872614227500506</v>
       </c>
       <c r="G23">
-        <v>0.9037674681740384</v>
+        <v>0.8806793251942082</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.01598901798943864</v>
+        <v>0.01360118565110024</v>
       </c>
       <c r="J23">
-        <v>0.5379090695257673</v>
+        <v>0.3500712529960737</v>
       </c>
       <c r="K23">
-        <v>0.4710589100115499</v>
+        <v>0.3638514569565672</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1609673152621092</v>
       </c>
       <c r="M23">
-        <v>2.275213916355824</v>
+        <v>0.1333023548194348</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.181984212765173</v>
       </c>
       <c r="P23">
-        <v>0.5780352573731662</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.5448188276165347</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.561640564286819</v>
+        <v>1.434458353297231</v>
       </c>
       <c r="C24">
-        <v>0.4502930576384756</v>
+        <v>0.5045542409143309</v>
       </c>
       <c r="D24">
-        <v>0.05148804934508888</v>
+        <v>0.05999420604217676</v>
       </c>
       <c r="E24">
-        <v>2.087242841627017</v>
+        <v>2.082249704320745</v>
       </c>
       <c r="F24">
-        <v>0.9199251447505077</v>
+        <v>0.8170824589109316</v>
       </c>
       <c r="G24">
-        <v>0.8016611651831056</v>
+        <v>0.6953306434622135</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.009655146539768289</v>
+        <v>0.008764929172691893</v>
       </c>
       <c r="J24">
-        <v>0.5002879765543895</v>
+        <v>0.4690620862378552</v>
       </c>
       <c r="K24">
-        <v>0.4415970318002493</v>
+        <v>0.3663015228601694</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1724313450818791</v>
       </c>
       <c r="M24">
-        <v>1.93860440073874</v>
+        <v>0.118979653406921</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.896948020777842</v>
       </c>
       <c r="P24">
-        <v>0.6343323694804361</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.6063336238549279</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.274680055528705</v>
+        <v>1.180867883701751</v>
       </c>
       <c r="C25">
-        <v>0.3661901880479093</v>
+        <v>0.4069025798266921</v>
       </c>
       <c r="D25">
-        <v>0.04610377390841336</v>
+        <v>0.05207598644657452</v>
       </c>
       <c r="E25">
-        <v>1.671745535645883</v>
+        <v>1.669754178454127</v>
       </c>
       <c r="F25">
-        <v>0.8001943166335366</v>
+        <v>0.7218671732410229</v>
       </c>
       <c r="G25">
-        <v>0.6979256681882759</v>
+        <v>0.6043250560113336</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.004702827379037267</v>
+        <v>0.004700073509741109</v>
       </c>
       <c r="J25">
-        <v>0.4630946930683137</v>
+        <v>0.4529036639517301</v>
       </c>
       <c r="K25">
-        <v>0.412549815324688</v>
+        <v>0.3520628551006162</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1786260364014787</v>
       </c>
       <c r="M25">
-        <v>1.580616223635644</v>
+        <v>0.09894608371806513</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.553372918840267</v>
       </c>
       <c r="P25">
-        <v>0.6988885142145307</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.6700804247917986</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
